--- a/ModelResults.xlsx
+++ b/ModelResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vivianxia/Documents/GitHub/Online_Retail_Customer_Returns/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C53E2FC-0EBD-1F4D-8727-24A915FDE070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF396BB-6265-6349-A3DB-78F843A317C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14680" yWindow="500" windowWidth="14080" windowHeight="16080" xr2:uid="{1ECAC860-993D-0C42-80CA-4F5FB9E31FA2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="45">
   <si>
     <t>Model</t>
   </si>
@@ -156,25 +156,31 @@
   </si>
   <si>
     <t>Hyperparameters</t>
-  </si>
-  <si>
-    <t>Best hyperparameters: {'n_estimators': 163, 'max_depth': 4, 'learning_rate': 0.010299526216417424, 'subsample': 0.7887416039181485, 'colsample_bytree': 0.6049693680044275, 'gamma': 0.23986638509728886, 'min_child_weight': 3, 'scale_pos_weight': 70}
-Best recall: 0.9264957264957264</t>
   </si>
   <si>
     <t>Best GridSearch Params: {'colsample_bytree': 1.0, 'gamma': 0, 'learning_rate': 0.03, 'max_depth': 3, 'min_child_weight': 3, 'n_estimators': 250, 'scale_pos_weight': 70, 'subsample': 0.8}
 Best Recall: 0.8979797979797979</t>
   </si>
   <si>
+    <t>Best hyperparameters: {'n_estimators': 114, 'max_depth': 4, 'learning_rate': 0.019732197832172015, 'subsample': 0.7283376459777261, 'colsample_bytree': 0.6601966585123001, 'gamma': 0.057572223738282614, 'min_child_weight': 4, 'scale_pos_weight': 68}
+Best recall: 0.9112665112665113</t>
+  </si>
+  <si>
     <t>Best parameters found: {'subsample': 0.8, 'scale_pos_weight': 60, 'n_estimators': 300, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.05, 'gamma': 0, 'colsample_bytree': 1.0}
-Best recall score: 0.871017871017871</t>
+Best recall score: 0.8714063714063714</t>
+  </si>
+  <si>
+    <t>Logistic</t>
+  </si>
+  <si>
+    <t>LogisticCV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -188,6 +194,19 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3B3B3B"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -210,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -220,6 +239,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B4F951-5782-1547-9476-19C82A3EB32A}">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -651,34 +677,34 @@
         <v>15</v>
       </c>
       <c r="H2" s="1">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="I2" s="1">
         <v>0.05</v>
       </c>
       <c r="J2" s="1">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="K2" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="L2" s="1">
         <v>1</v>
       </c>
-      <c r="L2" s="1">
-        <v>0.64</v>
-      </c>
       <c r="M2" s="1">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="N2" s="1">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="O2" s="1">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="P2" s="1">
         <v>0.5</v>
       </c>
       <c r="R2" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -725,16 +751,16 @@
         <v>0.89</v>
       </c>
       <c r="O3">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="P3">
         <v>0.5</v>
       </c>
       <c r="Q3">
-        <v>0.18</v>
-      </c>
-      <c r="R3">
-        <v>65</v>
+        <v>0.18160000000000001</v>
+      </c>
+      <c r="R3" s="1">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -760,37 +786,37 @@
         <v>15</v>
       </c>
       <c r="H4">
-        <v>0.28999999999999998</v>
+        <v>0.31</v>
       </c>
       <c r="I4">
-        <v>0.28999999999999998</v>
+        <v>0.26</v>
       </c>
       <c r="J4">
         <v>0.28999999999999998</v>
       </c>
       <c r="K4">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="L4">
         <v>0.99</v>
       </c>
       <c r="M4">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="N4">
         <v>0.89</v>
       </c>
       <c r="O4">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="P4">
-        <v>0.88600000000000001</v>
+        <v>0.874</v>
       </c>
       <c r="Q4">
-        <v>0.125</v>
-      </c>
-      <c r="R4">
-        <v>65</v>
+        <v>0.13289999999999999</v>
+      </c>
+      <c r="R4" s="1">
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -837,7 +863,7 @@
         <v>0.89</v>
       </c>
       <c r="O5">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="P5">
         <v>0.4</v>
@@ -845,8 +871,8 @@
       <c r="Q5">
         <v>0.06</v>
       </c>
-      <c r="R5">
-        <v>65</v>
+      <c r="R5" s="1">
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -896,10 +922,10 @@
         <v>0.02</v>
       </c>
       <c r="P6">
-        <v>0.5</v>
-      </c>
-      <c r="R6">
-        <v>65</v>
+        <v>6.1600000000000002E-2</v>
+      </c>
+      <c r="R6" s="1">
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -925,34 +951,34 @@
         <v>15</v>
       </c>
       <c r="H7">
-        <v>0.42</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I7">
-        <v>0.15</v>
+        <v>0.24</v>
       </c>
       <c r="J7">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="K7">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="L7">
         <v>0.99</v>
       </c>
       <c r="M7">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="N7">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="O7">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="P7">
         <v>0.5</v>
       </c>
-      <c r="R7">
-        <v>65</v>
+      <c r="R7" s="1">
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -999,16 +1025,16 @@
         <v>0.89</v>
       </c>
       <c r="O8" s="2">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="P8" s="2">
         <v>0.5</v>
       </c>
       <c r="Q8" s="2">
-        <v>7.4399999999999994E-2</v>
+        <v>7.1300000000000002E-2</v>
       </c>
       <c r="R8" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S8" s="2" t="s">
         <v>26</v>
@@ -1037,7 +1063,7 @@
         <v>15</v>
       </c>
       <c r="H9">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="I9">
         <v>0.08</v>
@@ -1064,10 +1090,10 @@
         <v>0.5</v>
       </c>
       <c r="Q9">
-        <v>7.6799999999999993E-2</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="R9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S9" t="s">
         <v>26</v>
@@ -1096,7 +1122,7 @@
         <v>4</v>
       </c>
       <c r="H10">
-        <v>0.57999999999999996</v>
+        <v>0.59</v>
       </c>
       <c r="I10">
         <v>0.13</v>
@@ -1123,10 +1149,10 @@
         <v>0.5</v>
       </c>
       <c r="Q10">
-        <v>0.1321</v>
-      </c>
-      <c r="R10">
-        <v>65</v>
+        <v>0.1331</v>
+      </c>
+      <c r="R10" s="1">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -1179,10 +1205,10 @@
         <v>0.5</v>
       </c>
       <c r="Q11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R11">
-        <v>65</v>
+        <v>7.22E-2</v>
+      </c>
+      <c r="R11" s="1">
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -1208,37 +1234,37 @@
         <v>4</v>
       </c>
       <c r="H12">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="I12">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="J12">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="K12">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="L12">
         <v>0.99</v>
       </c>
       <c r="M12">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="N12">
         <v>0.89</v>
       </c>
       <c r="O12">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="P12">
         <v>0.5</v>
       </c>
       <c r="Q12">
-        <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="R12">
-        <v>65</v>
+        <v>0.1133</v>
+      </c>
+      <c r="R12" s="1">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -1279,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="N13">
         <v>0.89</v>
@@ -1291,10 +1317,10 @@
         <v>0.4</v>
       </c>
       <c r="Q13">
-        <v>0.06</v>
+        <v>6.0499999999999998E-2</v>
       </c>
       <c r="R13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S13" t="s">
         <v>32</v>
@@ -1344,12 +1370,12 @@
         <v>0.5</v>
       </c>
       <c r="R14" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T14" s="4" t="s">
+      <c r="T14" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1397,13 +1423,13 @@
         <v>0.5</v>
       </c>
       <c r="R15" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S15" s="2" t="s">
         <v>35</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1429,7 +1455,7 @@
         <v>15</v>
       </c>
       <c r="H16" s="2">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="I16" s="2">
         <v>0.05</v>
@@ -1438,32 +1464,146 @@
         <v>0.09</v>
       </c>
       <c r="K16" s="2">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="L16" s="2">
         <v>1</v>
       </c>
       <c r="M16" s="2">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="N16" s="2">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="O16" s="2">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="P16" s="2">
-        <v>4.7399999999999998E-2</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="R16" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S16" s="2" t="s">
         <v>38</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="R17" s="2">
+        <v>14</v>
+      </c>
+      <c r="T17" s="7"/>
+    </row>
+    <row r="18" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="I18" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="R18" s="5">
+        <v>14</v>
+      </c>
+      <c r="T18" s="7"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T19" s="8"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T20" s="8"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T21" s="8"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T22" s="8"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T23" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
